--- a/data/trans_camb/P1428-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1428-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-7.633477839508587</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-3.501686903743432</v>
+        <v>-3.501686903743435</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-10.58269914813515</v>
@@ -655,7 +655,7 @@
         <v>-14.33515629825903</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-2.430918675242838</v>
+        <v>-2.430918675242844</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-7.459877359168238</v>
@@ -664,7 +664,7 @@
         <v>-11.28132119438786</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-2.338824993528907</v>
+        <v>-2.33882499352891</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.887180235222456</v>
+        <v>-7.225958144938134</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.5432136897931</v>
+        <v>-10.76031271004933</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.585967906952432</v>
+        <v>-6.806065037679996</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-14.17723369488966</v>
+        <v>-14.3856366313436</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-17.95956621647093</v>
+        <v>-18.56585248527591</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.147600997039899</v>
+        <v>-6.359570688589018</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-9.902700264413609</v>
+        <v>-9.691567284225806</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-13.88042990775891</v>
+        <v>-13.72395340420783</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-4.689020275062958</v>
+        <v>-4.716361153196176</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.143486724270638</v>
+        <v>-1.050320288745013</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.751928635297675</v>
+        <v>-4.843190197530664</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.1222923248170452</v>
+        <v>-0.3897731778413935</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-6.793991132164123</v>
+        <v>-7.060343884407937</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-10.31467721210205</v>
+        <v>-10.83970697322952</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.003569366981682</v>
+        <v>1.066760228169362</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-4.831538469579822</v>
+        <v>-4.762226228891726</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-8.952216670100881</v>
+        <v>-8.782482241972689</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3729383066238045</v>
+        <v>0.3360668002664677</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.4874265978920707</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.2235960292621689</v>
+        <v>-0.2235960292621691</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2998497287506913</v>
@@ -760,7 +760,7 @@
         <v>-0.4061716833733467</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.06887754203189281</v>
+        <v>-0.06887754203189296</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.2797900213125346</v>
@@ -769,7 +769,7 @@
         <v>-0.423117022632026</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.08771992665288313</v>
+        <v>-0.08771992665288324</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4140502247995</v>
+        <v>-0.420977389015576</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6142312925451259</v>
+        <v>-0.6159111630810181</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3887887310934766</v>
+        <v>-0.3940710147036796</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3753080823684298</v>
+        <v>-0.3870314940836207</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4810048883949147</v>
+        <v>-0.4921547130806291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1654666089766176</v>
+        <v>-0.1675709760713559</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3500920007730305</v>
+        <v>-0.3538998234727048</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4972536145113446</v>
+        <v>-0.4964963693029844</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1664173177771992</v>
+        <v>-0.168170755985738</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.08414215816560189</v>
+        <v>-0.07104998192044344</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3304188737324285</v>
+        <v>-0.3315105250478496</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.003547124249919128</v>
+        <v>-0.02528252011298254</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2002390629234923</v>
+        <v>-0.2147665286262548</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3088096590671965</v>
+        <v>-0.3143283835108132</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0305521108509282</v>
+        <v>0.03211878418444916</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1907425534740174</v>
+        <v>-0.1922349347227789</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3454836659366926</v>
+        <v>-0.3438601942457231</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.01633840172007403</v>
+        <v>0.01355368325300214</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.215240822862299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.7387427094270662</v>
+        <v>0.7387427094270655</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.809678142034446</v>
@@ -869,7 +869,7 @@
         <v>-1.397978634622014</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>2.939121283997522</v>
+        <v>2.939121283997524</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.420103684006499</v>
@@ -878,7 +878,7 @@
         <v>-1.288303125976928</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>1.848541088713344</v>
+        <v>1.848541088713346</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.304897778647282</v>
+        <v>-2.16202524563756</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.431469633032896</v>
+        <v>-2.343304651603345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.5245519385555966</v>
+        <v>-0.5156826465772233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.531520240557069</v>
+        <v>-3.403803141019613</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.94274770340771</v>
+        <v>-3.191676588914463</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.297067237421087</v>
+        <v>1.345878075710631</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.486618602955122</v>
+        <v>-2.538461152545506</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.328909912262129</v>
+        <v>-2.278119678311189</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8281638646558259</v>
+        <v>0.709128354242873</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1202515052338544</v>
+        <v>0.07217323700134645</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.1117814219430496</v>
+        <v>-0.1484554684204352</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.979452887139503</v>
+        <v>1.899531194166577</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.2507856871512645</v>
+        <v>-0.01557748181756995</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3128583098777372</v>
+        <v>0.1240051043391545</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.510407479775211</v>
+        <v>4.568035575407409</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.403479994670205</v>
+        <v>-0.442266475243793</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.3032592350085028</v>
+        <v>-0.3172509003218085</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.84931678625821</v>
+        <v>2.792981975108772</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.3356568712212581</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.2040452080105125</v>
+        <v>0.2040452080105123</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.269548052015383</v>
@@ -974,7 +974,7 @@
         <v>-0.2082262082791495</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4377764190972935</v>
+        <v>0.4377764190972939</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.2775117396135471</v>
@@ -983,7 +983,7 @@
         <v>-0.2517557314060118</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.3612354922062246</v>
+        <v>0.3612354922062249</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5201950850298785</v>
+        <v>-0.4928654610143408</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.5543440554410013</v>
+        <v>-0.5521702634749812</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1346740855022703</v>
+        <v>-0.1213186961861441</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4742637208699473</v>
+        <v>-0.4603544616804562</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3848126002662498</v>
+        <v>-0.4110404542513422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1644297689322053</v>
+        <v>0.1639613495962385</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4369261808575992</v>
+        <v>-0.4443835815233041</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4064342435258331</v>
+        <v>-0.4048586130248047</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1518281399051623</v>
+        <v>0.1188206848116984</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05924904723929911</v>
+        <v>0.05088298391252522</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.03143605241458242</v>
+        <v>-0.04449831893967085</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6519503655962667</v>
+        <v>0.643293122435221</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.04289893596194033</v>
+        <v>-0.003008540144627494</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05690376158860661</v>
+        <v>0.02418078702516681</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7910325759475177</v>
+        <v>0.7819525700464395</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.08109468289338943</v>
+        <v>-0.09076893198115314</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.05523140115436765</v>
+        <v>-0.07922919499211589</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6324945161499052</v>
+        <v>0.6187755809177157</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-0.7575335295831567</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09236375363578242</v>
+        <v>0.09236375363578173</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.4156676113405353</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.222309088620951</v>
+        <v>-2.27600326220754</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.735982941173141</v>
+        <v>-2.733201166701492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.908787860129502</v>
+        <v>-1.973015941373325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.342514812692182</v>
+        <v>-3.381191297849456</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.127581283886211</v>
+        <v>-4.946500444060764</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.2665665119560089</v>
+        <v>-0.5046522093690262</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.036188605841843</v>
+        <v>-1.818617708713155</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.189975623281507</v>
+        <v>-3.116322281076147</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.4377182123593033</v>
+        <v>-0.3295483063881833</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.197100781953375</v>
+        <v>2.222178164757674</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.196055017477975</v>
+        <v>1.375740828748635</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.714532677820948</v>
+        <v>1.709960728989924</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.668767430127624</v>
+        <v>2.67843303092214</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3360490660133694</v>
+        <v>0.3008160484654184</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.733230312279465</v>
+        <v>4.619515680971141</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.694035088112515</v>
+        <v>1.93709959822745</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.146443162735984</v>
+        <v>0.2221103428819921</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.85457274478629</v>
+        <v>2.833055345649951</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3055191437269664</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.03725101770444479</v>
+        <v>0.03725101770444451</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.07671445190136487</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6460558249062957</v>
+        <v>-0.6844355685554754</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7703046083453828</v>
+        <v>-0.7609524103310281</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5267831923946958</v>
+        <v>-0.5538564848816823</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.496334201253431</v>
+        <v>-0.5031771675801454</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.707690392227136</v>
+        <v>-0.7135498465793948</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03636685990996319</v>
+        <v>-0.07633118578933447</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.431042527876732</v>
+        <v>-0.3906813285493289</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6540576105987469</v>
+        <v>-0.6574587159066904</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09206175190239749</v>
+        <v>-0.07068669632412301</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.685856494546522</v>
+        <v>1.464530891315445</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9544635815182188</v>
+        <v>1.345547010410875</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.217839214961633</v>
+        <v>1.289035302021195</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7138703779422841</v>
+        <v>0.6619401606109957</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1429355813855759</v>
+        <v>0.1207611320028485</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.249763509869015</v>
+        <v>1.219151590172184</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5689902637927965</v>
+        <v>0.7153002875559392</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07924040812038995</v>
+        <v>0.1084258094638852</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9819659086398964</v>
+        <v>0.9756174083046816</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-8.281005580750058</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.283039566349072</v>
+        <v>-3.283039566349075</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-3.6821515016106</v>
@@ -1306,7 +1306,7 @@
         <v>-5.990633921982226</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-2.5711096117445</v>
+        <v>-2.571109611744498</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.214682880862614</v>
+        <v>-3.16209643830016</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.772712491681008</v>
+        <v>-4.7102351681168</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.071277620852163</v>
+        <v>-3.05345210122217</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.958368682957848</v>
+        <v>-7.166905647393092</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-9.902287436397767</v>
+        <v>-9.771380615866713</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.838570459669834</v>
+        <v>-4.962873681797101</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.827439911810934</v>
+        <v>-4.814911138613595</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-7.168645648755454</v>
+        <v>-7.031939530850882</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-3.53556787931563</v>
+        <v>-3.611436841577664</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.9338191322936855</v>
+        <v>-0.7041795771734929</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.59028721528973</v>
+        <v>-2.618385520525541</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.7974202159161236</v>
+        <v>-0.7452460619878164</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.557034825567333</v>
+        <v>-3.562483466245758</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-6.67372966145076</v>
+        <v>-6.585064019875543</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.82639092985072</v>
+        <v>-1.655686707039766</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.690868881708828</v>
+        <v>-2.600572435132775</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.029165948438055</v>
+        <v>-4.961112116765896</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-1.576730210131887</v>
+        <v>-1.601773404579151</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.4690804481982975</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1859689208295738</v>
+        <v>-0.185968920829574</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.294167815383856</v>
@@ -1411,7 +1411,7 @@
         <v>-0.4785929348162645</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2054064579549446</v>
+        <v>-0.2054064579549444</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4142663668217805</v>
+        <v>-0.4036929467768458</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6134516163303607</v>
+        <v>-0.6023761383998854</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3902319874929653</v>
+        <v>-0.385868113665958</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3749497900426146</v>
+        <v>-0.378685818317847</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5332821106677146</v>
+        <v>-0.5336896187659035</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2609508738638098</v>
+        <v>-0.2639874818647931</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3669926335794874</v>
+        <v>-0.3633125720074045</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5453883819829044</v>
+        <v>-0.5356646322942455</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2696659777356695</v>
+        <v>-0.2741457238220142</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1390417673627478</v>
+        <v>-0.1081596213372545</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3911149788678276</v>
+        <v>-0.3876537115350492</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1193698127979989</v>
+        <v>-0.1132682893051006</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2036435383661937</v>
+        <v>-0.2111119519125629</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3965121680098067</v>
+        <v>-0.3961313000304831</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1092082748978098</v>
+        <v>-0.09923810102042037</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.2233555698970758</v>
+        <v>-0.2147521675604028</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.4230752222837116</v>
+        <v>-0.412235975422927</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.1317983855587632</v>
+        <v>-0.1323038433163099</v>
       </c>
     </row>
     <row r="28">
